--- a/账目.xlsx
+++ b/账目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA53209-ECAD-45C3-88C4-A6822F5D4D50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F0643F-40DB-436F-9171-B6C4E041E531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>账目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,21 @@
   </si>
   <si>
     <t>校园团体保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王富森妈妈</t>
+  </si>
+  <si>
+    <t>王富森妈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优美教室评比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +720,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -918,6 +933,49 @@
         <v>44080.893055555556</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
+        <v>44086</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
+        <v>355</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="16">
+        <v>44087.34375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
+        <v>44086</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3">
+        <v>355</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="16">
+        <v>44087.34375</v>
+      </c>
+    </row>
     <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
@@ -951,11 +1009,11 @@
       </c>
       <c r="D23" s="25">
         <f>SUMIF($G2:$G20, "微信", D2:D20)</f>
-        <v>65.849999999999994</v>
+        <v>420.85</v>
       </c>
       <c r="E23" s="25">
         <f>C23-D23</f>
-        <v>9934.15</v>
+        <v>9579.15</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="20"/>
@@ -972,7 +1030,6 @@
       <c r="C26" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H9" xr:uid="{15526F45-1F6D-4E08-86E1-E105F71DDE79}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1082,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1118,6 +1175,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/账目.xlsx
+++ b/账目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F0643F-40DB-436F-9171-B6C4E041E531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BE4611-CFF4-4A80-9A03-DA5C851D920C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="585" windowWidth="15420" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="记账" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>账目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,14 @@
   </si>
   <si>
     <t>优美教室评比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔板+书法纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650+10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,9 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,9 +358,6 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,36 +718,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -757,12 +759,12 @@
       <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>44078</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -780,12 +782,12 @@
       <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>44078.877083333333</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>44078</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -800,12 +802,12 @@
       <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>44078.877083333333</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>44078</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -820,12 +822,12 @@
       <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>44078.920138888891</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>44078</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -843,12 +845,12 @@
       <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>44078.920138888891</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>44079</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -866,12 +868,12 @@
       <c r="G6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>44079.609027777777</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>44079</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -886,12 +888,12 @@
       <c r="G7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>44079.609027777777</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>44080</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -906,12 +908,12 @@
       <c r="G8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>44080.893055555556</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>44080</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -929,12 +931,12 @@
       <c r="G9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>44080.893055555556</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>44086</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -949,12 +951,12 @@
       <c r="G10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>44087.34375</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>44086</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -972,61 +974,102 @@
       <c r="G11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>44087.34375</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="10" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
+        <v>44092</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3">
+        <v>660</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="15">
+        <v>44092.801388888889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
+        <v>44092</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3">
+        <v>660</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="15">
+        <v>44092.801388888889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="22" t="s">
         <v>34</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="17" t="s">
+      <c r="G22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="4" t="str">
+      <c r="H22" s="4" t="str">
         <f>IF(SUM(C2:C21)=SUM(D2:D21), "正常", "异常")</f>
         <v>正常</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
-      <c r="C23" s="25">
+    <row r="23" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="C23" s="23">
         <f>SUMIF($G2:$G20, "微信", C2:C20)</f>
         <v>10000</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="23">
         <f>SUMIF($G2:$G20, "微信", D2:D20)</f>
-        <v>420.85</v>
-      </c>
-      <c r="E23" s="25">
+        <v>1080.8499999999999</v>
+      </c>
+      <c r="E23" s="23">
         <f>C23-D23</f>
-        <v>9579.15</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+        <v>8919.15</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="7"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="7"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C26" s="2"/>
     </row>
   </sheetData>
